--- a/tests/robot_framework/files/inquiries/linking6.xlsx
+++ b/tests/robot_framework/files/inquiries/linking6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/inquiries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDAD75-E857-8B4B-823F-39745B7DEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2516021-7D81-A243-B0DA-8DC5403946B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="3260" windowWidth="27040" windowHeight="16860" xr2:uid="{D6111B66-C468-412B-86A6-60677286DA0F}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{D6111B66-C468-412B-86A6-60677286DA0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>2020-01</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
 </sst>
 </file>
@@ -91,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +415,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -434,8 +438,8 @@
       <c r="A2">
         <v>3501</v>
       </c>
-      <c r="B2">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -445,8 +449,8 @@
       <c r="A3">
         <v>3502</v>
       </c>
-      <c r="B3">
-        <v>9</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
